--- a/data/trans_orig/IP12BS03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA7EC96-C3D5-4CA7-9812-08F721EF58D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F11AEC84-CF3F-4AF9-B04B-A39F0CD9C72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4F38D1D6-DDAF-49F6-B41D-D91F5CCEE904}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F4794EAE-F1D0-4391-B130-4021011B7065}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,61 +70,64 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Dolor de cabeza</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>Contusión, lesión o heridas</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Dolor de oídos, otitis</t>
+  </si>
+  <si>
+    <t>Fiebre</t>
+  </si>
+  <si>
+    <t>Vómitos</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>Dolor abdominal</t>
   </si>
   <si>
-    <t>Dolor de cabeza</t>
-  </si>
-  <si>
-    <t>Dolor de oídos, otitis</t>
-  </si>
-  <si>
-    <t>Fiebre</t>
-  </si>
-  <si>
     <t>Otros</t>
   </si>
   <si>
-    <t>Vómitos</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
+    <t>44,41%</t>
   </si>
   <si>
     <t>51,86%</t>
@@ -133,9 +136,6 @@
     <t>33,83%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
     <t>34,77%</t>
   </si>
   <si>
@@ -157,6 +157,12 @@
     <t>43,5%</t>
   </si>
   <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
     <t>44,48%</t>
   </si>
   <si>
@@ -166,6 +172,18 @@
     <t>75,3%</t>
   </si>
   <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
     <t>40,66%</t>
   </si>
   <si>
@@ -175,22 +193,16 @@
     <t>74,7%</t>
   </si>
   <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
   </si>
   <si>
     <t>17,92%</t>
@@ -205,61 +217,49 @@
     <t>56,56%</t>
   </si>
   <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>10,35%</t>
   </si>
   <si>
     <t>46,16%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
     <t>20,75%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
   </si>
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 3 en 2015 (Tasa respuesta: 0,09%)</t>
@@ -660,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA6320F-6E0D-4E26-BFC3-5FC5B71550FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2DCC8D-5EF0-4FA0-BB84-9BBA77208FAE}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -974,19 +974,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1002,25 +1002,25 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1069,22 +1069,22 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1127,13 +1127,13 @@
         <v>650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1174,41 +1174,47 @@
       <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1217,43 +1223,49 @@
         <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>700</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>700</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1264,41 +1276,47 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>720</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>720</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,41 +1327,47 @@
       <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,131 +1378,149 @@
       <c r="C16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
       <c r="J17" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
       <c r="O17" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
       <c r="O18" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1487,96 +1529,96 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>700</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>720</v>
+      </c>
       <c r="J19" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1420</v>
+      </c>
       <c r="O19" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,47 +1629,41 @@
       <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,47 +1674,41 @@
       <c r="C22" s="7">
         <v>0</v>
       </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,47 +1719,41 @@
       <c r="C23" s="7">
         <v>0</v>
       </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,149 +1764,131 @@
       <c r="C24" s="7">
         <v>0</v>
       </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
       </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
+      <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
       </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
+      <c r="I25" s="7"/>
       <c r="J25" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
+      <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
+      <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,49 +1897,43 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7"/>
       <c r="J27" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M27" s="7">
-        <v>2</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,19 +1944,19 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,19 +1995,19 @@
         <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2025,19 +2025,19 @@
         <v>13</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,37 +2058,37 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,37 +2109,37 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,19 +2148,19 @@
         <v>18</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2178,25 +2178,25 @@
         <v>13</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2241,28 +2241,28 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2280,19 +2280,19 @@
         <v>13</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2307,13 @@
         <v>1350</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2322,13 +2322,13 @@
         <v>720</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -2337,13 +2337,13 @@
         <v>2070</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64D571B-241B-4924-A14F-C4A8D003A43F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804613BA-6EE5-48F6-A634-C2F49F9AF01F}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2507,7 +2507,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,7 +2558,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2609,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,34 +2648,34 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,55 +2684,55 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1288</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1288</v>
+        <v>992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2777,28 +2777,28 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2843,13 @@
         <v>992</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2858,13 +2858,13 @@
         <v>1288</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2873,13 +2873,13 @@
         <v>2280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,47 +2892,45 @@
       <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,19 +2939,17 @@
         <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2968,22 +2964,22 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,47 +2990,45 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,49 +3037,47 @@
         <v>17</v>
       </c>
       <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="7">
-        <v>942</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>942</v>
+        <v>896</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,17 +3088,15 @@
       <c r="C16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3121,7 +3111,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3136,28 +3126,26 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3172,7 +3160,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3187,28 +3175,26 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3223,7 +3209,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3238,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,54 +3233,52 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1474</v>
+        <v>896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>3061</v>
+        <v>896</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3302,45 +3286,47 @@
       <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,45 +3337,47 @@
       <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
       <c r="E21" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,17 +3386,19 @@
         <v>16</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>942</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3423,22 +3413,22 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,15 +3439,17 @@
       <c r="C23" s="7">
         <v>0</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
       <c r="E23" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3472,7 +3464,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3487,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,65 +3490,69 @@
       <c r="C24" s="7">
         <v>0</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
       <c r="E24" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>645</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
@@ -3570,41 +3566,43 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
       <c r="E26" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3619,7 +3617,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3634,7 +3632,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,47 +3641,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1587</v>
+      </c>
       <c r="E27" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="7">
-        <v>896</v>
+        <v>1474</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" s="7">
-        <v>896</v>
+        <v>3061</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3706,13 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>656</v>
+        <v>818</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>51</v>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>656</v>
+        <v>818</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>53</v>
@@ -3745,31 +3745,31 @@
         <v>15</v>
       </c>
       <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="7">
-        <v>645</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="I29" s="7">
+        <v>656</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>56</v>
@@ -3778,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>57</v>
@@ -3796,31 +3796,31 @@
         <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>60</v>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>818</v>
+        <v>942</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>61</v>
@@ -3847,49 +3847,49 @@
         <v>17</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2184</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K31" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>942</v>
+        <v>2184</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,71 +3898,71 @@
         <v>18</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H32" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>2184</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="M32" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>2184</v>
+        <v>992</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>68</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>645</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
@@ -3976,43 +3976,43 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>73</v>
@@ -4057,13 +4057,13 @@
         <v>2579</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -4072,13 +4072,13 @@
         <v>3658</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -4087,13 +4087,13 @@
         <v>6237</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4112,7 +4112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7566EC3D-00E4-4468-BD96-94D260CA1106}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F57AD3-FD48-4C15-A6F1-C993C8F1C933}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4242,7 +4242,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +4291,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,7 +4340,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,19 +4377,19 @@
         <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4405,19 +4405,19 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,19 +4426,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4454,40 +4454,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4503,40 +4503,40 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4552,19 +4552,19 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4579,13 @@
         <v>1228</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4607,13 +4607,13 @@
         <v>1228</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,7 +4846,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4891,7 +4891,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5208,7 +5208,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -5253,7 +5253,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5360,7 +5360,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5388,7 +5388,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,7 +5458,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,19 +5495,19 @@
         <v>17</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5523,19 +5523,19 @@
         <v>14</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,19 +5544,19 @@
         <v>18</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5572,40 +5572,40 @@
         <v>14</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5621,40 +5621,40 @@
         <v>14</v>
       </c>
       <c r="M33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5670,19 +5670,19 @@
         <v>14</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5697,13 @@
         <v>1228</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5725,13 +5725,13 @@
         <v>1228</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP12BS03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F11AEC84-CF3F-4AF9-B04B-A39F0CD9C72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7123ABE4-4354-4819-8E45-91BA1F32D979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F4794EAE-F1D0-4391-B130-4021011B7065}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2828B437-97A8-4084-9B82-AAE7D101D179}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="80">
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 3 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -67,94 +67,130 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Dolor abdominal</t>
+  </si>
+  <si>
+    <t>Vómitos</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fiebre</t>
+  </si>
+  <si>
+    <t>Dolor de oídos, otitis</t>
+  </si>
+  <si>
+    <t>Contusión, lesión o heridas</t>
   </si>
   <si>
     <t>Dolor de cabeza</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Contusión, lesión o heridas</t>
-  </si>
-  <si>
-    <t>Dolor de oídos, otitis</t>
-  </si>
-  <si>
-    <t>Fiebre</t>
-  </si>
-  <si>
-    <t>Vómitos</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Dolor abdominal</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
   </si>
   <si>
     <t>56,93%</t>
   </si>
   <si>
+    <t>50,69%</t>
+  </si>
+  <si>
     <t>49,31%</t>
   </si>
   <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>12-15</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
     <t>51,86%</t>
   </si>
   <si>
     <t>33,83%</t>
   </si>
   <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 3 en 2012 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
   </si>
   <si>
     <t>55,52%</t>
@@ -163,112 +199,85 @@
     <t>26,73%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>75,62%</t>
+    <t>79,2%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>58,7%</t>
   </si>
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 3 en 2015 (Tasa respuesta: 0,09%)</t>
   </si>
   <si>
+    <t>46,87%</t>
+  </si>
+  <si>
     <t>53,13%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
   </si>
 </sst>
 </file>
@@ -279,7 +288,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -375,39 +384,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -459,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -570,13 +579,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -585,6 +587,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -649,19 +658,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2DCC8D-5EF0-4FA0-BB84-9BBA77208FAE}">
-  <dimension ref="A1:Q35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B960F28-A732-48A4-A62A-EAAEA783C46D}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -876,19 +905,19 @@
         <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -904,25 +933,25 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -971,22 +1000,22 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1002,19 +1031,19 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1127,13 +1156,13 @@
         <v>650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1155,13 +1184,13 @@
         <v>650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1223,19 +1252,19 @@
         <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1253,19 +1282,19 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1289,40 +1318,40 @@
         <v>13</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -1373,7 +1402,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1391,34 +1420,34 @@
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,19 +1456,19 @@
         <v>22</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1457,19 +1486,19 @@
         <v>13</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1535,13 +1564,13 @@
         <v>700</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1550,13 +1579,13 @@
         <v>720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1565,13 +1594,13 @@
         <v>1420</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,7 +1743,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1759,7 +1788,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1938,7 +1967,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -1946,47 +1975,41 @@
       <c r="C28" s="7">
         <v>0</v>
       </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
+      <c r="I28" s="7"/>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
+      <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,49 +2018,43 @@
         <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
+      <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,149 +2065,131 @@
       <c r="C30" s="7">
         <v>0</v>
       </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
       </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
+      <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
       </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
+      <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
-        <v>650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
+      <c r="I32" s="7"/>
       <c r="J32" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,47 +2200,41 @@
       <c r="C33" s="7">
         <v>0</v>
       </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
+      <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
       </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
+      <c r="N33" s="7"/>
       <c r="O33" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,47 +2245,41 @@
       <c r="C34" s="7">
         <v>0</v>
       </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
       </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
+      <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,55 +2288,465 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>650</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>650</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
+        <v>720</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>720</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>700</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1</v>
+      </c>
+      <c r="N41" s="7">
+        <v>700</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>2</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D43" s="7">
         <v>1350</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="7">
+      <c r="E43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="7">
         <v>1</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I43" s="7">
         <v>720</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="7">
+      <c r="J43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="7">
         <v>3</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N43" s="7">
         <v>2070</v>
       </c>
-      <c r="O35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>21</v>
+      <c r="O43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2362,8 +2759,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804613BA-6EE5-48F6-A634-C2F49F9AF01F}">
-  <dimension ref="A1:Q35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AC5047-29CA-43D5-B831-F450A3921BD3}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2379,7 +2776,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2507,22 +2904,22 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,22 +2955,22 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,55 +2979,55 @@
         <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2648,55 +3045,55 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1288</v>
+        <v>627</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1288</v>
+        <v>627</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2711,22 +3108,22 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>992</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,22 +3159,22 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,22 +3210,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,43 +3240,43 @@
         <v>992</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>627</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="7">
-        <v>1288</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
       <c r="N11" s="7">
-        <v>2280</v>
+        <v>1619</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +3312,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2930,7 +3327,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,7 +3361,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2979,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3028,13 +3425,13 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -3050,40 +3447,40 @@
         <v>14</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>896</v>
+        <v>1557</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>896</v>
+        <v>1557</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -3111,7 +3508,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3126,7 +3523,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3557,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3175,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,7 +3606,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3224,7 +3621,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,34 +3643,34 @@
         <v>14</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>896</v>
+        <v>1557</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>896</v>
+        <v>1557</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,47 +3683,41 @@
       <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,47 +3728,41 @@
       <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,151 +3771,133 @@
         <v>16</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <v>942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
       </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
       </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
       </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
+      <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,49 +3906,43 @@
         <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
-        <v>645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
+      <c r="I25" s="7"/>
       <c r="J25" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,47 +3953,41 @@
       <c r="C26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
+      <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,54 +3996,48 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H27" s="7">
-        <v>2</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7"/>
       <c r="J27" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M27" s="7">
-        <v>4</v>
-      </c>
-      <c r="N27" s="7">
-        <v>3061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3706,37 +4055,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,49 +4094,49 @@
         <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,19 +4145,19 @@
         <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3823,28 +4172,28 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -3859,58 +4208,58 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H31" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>2184</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M31" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>2184</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>992</v>
+        <v>942</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3925,22 +4274,22 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>992</v>
+        <v>942</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,49 +4298,49 @@
         <v>22</v>
       </c>
       <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="7">
         <v>1</v>
       </c>
-      <c r="D33" s="7">
-        <v>645</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
       <c r="I33" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
       </c>
       <c r="N33" s="7">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,37 +4361,37 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,55 +4400,471 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1587</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="7">
+        <v>2</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1474</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="7">
+        <v>4</v>
+      </c>
+      <c r="N35" s="7">
+        <v>3061</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="7">
+      <c r="B36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
+        <v>645</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="7">
+        <v>1</v>
+      </c>
+      <c r="N37" s="7">
+        <v>645</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>992</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>992</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="7">
+        <v>3</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2184</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2184</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7">
+        <v>942</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>942</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <v>656</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1</v>
+      </c>
+      <c r="N41" s="7">
+        <v>656</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7">
+        <v>818</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1</v>
+      </c>
+      <c r="N42" s="7">
+        <v>818</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>3</v>
+      </c>
+      <c r="D43" s="7">
         <v>2579</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="7">
+      <c r="E43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="7">
         <v>5</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I43" s="7">
         <v>3658</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="7">
+      <c r="J43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="7">
         <v>8</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N43" s="7">
         <v>6237</v>
       </c>
-      <c r="O35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>21</v>
+      <c r="O43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4112,8 +4877,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F57AD3-FD48-4C15-A6F1-C993C8F1C933}">
-  <dimension ref="A1:Q35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E0BA88-0D4B-4A3C-8936-0E350DE2049C}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4129,7 +4894,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4242,7 +5007,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4270,7 +5035,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +5056,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4319,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,7 +5105,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4368,13 +5133,13 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -4383,10 +5148,10 @@
         <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -4411,10 +5176,10 @@
         <v>652</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>19</v>
@@ -4423,7 +5188,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4438,7 +5203,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4466,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +5252,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4515,7 +5280,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,19 +5289,19 @@
         <v>23</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4552,19 +5317,19 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,19 +5338,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1228</v>
+        <v>652</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4601,19 +5366,19 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1228</v>
+        <v>652</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,17 +5389,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>576</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4650,17 +5417,19 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>576</v>
+      </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,15 +5440,17 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4697,15 +5468,17 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,15 +5489,17 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4742,34 +5517,38 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4787,34 +5566,38 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4832,15 +5615,17 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,15 +5636,17 @@
       <c r="C17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4877,15 +5664,17 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
       <c r="O17" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,15 +5685,17 @@
       <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4922,15 +5713,17 @@
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
       <c r="O18" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,17 +5732,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>576</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4965,17 +5760,19 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>576</v>
+      </c>
       <c r="O19" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,7 +5915,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -5163,7 +5960,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -5342,7 +6139,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5350,17 +6147,15 @@
       <c r="C28" s="7">
         <v>0</v>
       </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5378,17 +6173,15 @@
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
+      <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,17 +6192,15 @@
       <c r="C29" s="7">
         <v>0</v>
       </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5427,17 +6218,15 @@
       <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
+      <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,17 +6237,15 @@
       <c r="C30" s="7">
         <v>0</v>
       </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5476,38 +6263,34 @@
       <c r="M30" s="7">
         <v>0</v>
       </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
+      <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5523,40 +6306,36 @@
         <v>14</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
       </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5574,17 +6353,15 @@
       <c r="M32" s="7">
         <v>0</v>
       </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
+      <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,17 +6372,15 @@
       <c r="C33" s="7">
         <v>0</v>
       </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5623,17 +6398,15 @@
       <c r="M33" s="7">
         <v>0</v>
       </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
+      <c r="N33" s="7"/>
       <c r="O33" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,19 +6415,17 @@
         <v>23</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7">
-        <v>576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5670,19 +6441,17 @@
         <v>14</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
-      </c>
-      <c r="N34" s="7">
-        <v>576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,19 +6460,17 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5719,25 +6486,423 @@
         <v>14</v>
       </c>
       <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>576</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1</v>
+      </c>
+      <c r="N36" s="7">
+        <v>576</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>652</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1</v>
+      </c>
+      <c r="N39" s="7">
+        <v>652</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>2</v>
       </c>
-      <c r="N35" s="7">
+      <c r="D43" s="7">
         <v>1228</v>
       </c>
-      <c r="O35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>21</v>
+      <c r="E43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="7">
+        <v>2</v>
+      </c>
+      <c r="N43" s="7">
+        <v>1228</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP12BS03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7123ABE4-4354-4819-8E45-91BA1F32D979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{126D97FD-E961-40E3-B252-26099BB7A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2828B437-97A8-4084-9B82-AAE7D101D179}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{754EE848-C9D2-4297-8990-E1A60E6DECF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -190,15 +190,15 @@
     <t>21,42%</t>
   </si>
   <si>
-    <t>75,55%</t>
-  </si>
-  <si>
     <t>55,52%</t>
   </si>
   <si>
     <t>26,73%</t>
   </si>
   <si>
+    <t>79,18%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
@@ -211,7 +211,7 @@
     <t>10,35%</t>
   </si>
   <si>
-    <t>53,81%</t>
+    <t>46,69%</t>
   </si>
   <si>
     <t>38,46%</t>
@@ -220,22 +220,22 @@
     <t>15,9%</t>
   </si>
   <si>
-    <t>58,12%</t>
+    <t>60,82%</t>
   </si>
   <si>
     <t>59,71%</t>
   </si>
   <si>
-    <t>17,53%</t>
+    <t>16,81%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>36,52%</t>
@@ -244,34 +244,34 @@
     <t>15,1%</t>
   </si>
   <si>
-    <t>56,89%</t>
+    <t>56,33%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>77,77%</t>
+    <t>79,88%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>59,36%</t>
+    <t>50,78%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>79,2%</t>
+    <t>83,19%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de dolor sufrido que le limita 3 en 2015 (Tasa respuesta: 0,09%)</t>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de dolor sufrido que le limita 3 en 2016 (Tasa respuesta: 0,09%)</t>
   </si>
   <si>
     <t>46,87%</t>
@@ -689,7 +689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B960F28-A732-48A4-A62A-EAAEA783C46D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A6CE4D-D09F-4F09-80F4-2613AF7681DD}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2759,7 +2759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AC5047-29CA-43D5-B831-F450A3921BD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD18509-71A3-4633-94EE-2DC4F81A9F96}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4340,7 +4340,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,7 +4370,7 @@
         <v>818</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
@@ -4385,13 +4385,13 @@
         <v>818</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,7 +4877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E0BA88-0D4B-4A3C-8936-0E350DE2049C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ABAF81-264C-46CB-8515-D9CFA0DC5DA6}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
